--- a/data/Dados_demográficos_municípios_new.xlsx
+++ b/data/Dados_demográficos_municípios_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/808ebfd9a0d86213/Programação/python/covid/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="11_9C4A395EBA86A6FABF78FDBB78A1F952CDDEF3C3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{976E902D-9995-406F-8704-7CE896C2FCCD}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="11_9C4A395EBA86A6FABF78FDBB78A1F952CDDEF3C3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B0163453-EA4C-48B3-8BA9-5A9828F73AFF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3247" uniqueCount="2433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3788" uniqueCount="2468">
   <si>
     <t>UF</t>
   </si>
@@ -7324,13 +7324,143 @@
   </si>
   <si>
     <t>18705</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Renda </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">per capita </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Salário médio mensal dos trabalhadores formais [2017])</t>
+    </r>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7351,6 +7481,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -7360,7 +7507,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -7368,20 +7515,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7392,9 +7530,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7709,10 +7851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F542"/>
+  <dimension ref="A1:G542"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D542"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7723,19 +7865,21 @@
     <col min="4" max="4" width="35.7109375" customWidth="1"/>
     <col min="5" max="5" width="39.140625" customWidth="1"/>
     <col min="6" max="6" width="31.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -7754,8 +7898,11 @@
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="4" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -7774,8 +7921,11 @@
       <c r="F3" s="3" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -7794,8 +7944,11 @@
       <c r="F4" s="3" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -7814,8 +7967,11 @@
       <c r="F5" s="3" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -7834,8 +7990,11 @@
       <c r="F6" s="3" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -7854,8 +8013,11 @@
       <c r="F7" s="3" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -7874,8 +8036,11 @@
       <c r="F8" s="3" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -7894,8 +8059,11 @@
       <c r="F9" s="3" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -7914,8 +8082,11 @@
       <c r="F10" s="3" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -7934,8 +8105,11 @@
       <c r="F11" s="3" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -7954,8 +8128,11 @@
       <c r="F12" s="3" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="6" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -7974,8 +8151,11 @@
       <c r="F13" s="3" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -7994,8 +8174,11 @@
       <c r="F14" s="3" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
@@ -8014,8 +8197,11 @@
       <c r="F15" s="3" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="6" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
@@ -8034,8 +8220,11 @@
       <c r="F16" s="3" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -8054,8 +8243,11 @@
       <c r="F17" s="3" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="6" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
@@ -8074,8 +8266,11 @@
       <c r="F18" s="3" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
@@ -8094,8 +8289,11 @@
       <c r="F19" s="3" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="6" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
@@ -8114,8 +8312,11 @@
       <c r="F20" s="3" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="6" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
@@ -8134,8 +8335,11 @@
       <c r="F21" s="3" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
@@ -8154,8 +8358,11 @@
       <c r="F22" s="3" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
@@ -8174,8 +8381,11 @@
       <c r="F23" s="3" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="6" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>42</v>
       </c>
@@ -8194,8 +8404,11 @@
       <c r="F24" s="3" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>43</v>
       </c>
@@ -8214,8 +8427,11 @@
       <c r="F25" s="3" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="6" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>45</v>
       </c>
@@ -8234,8 +8450,11 @@
       <c r="F26" s="3" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>47</v>
       </c>
@@ -8254,8 +8473,11 @@
       <c r="F27" s="3" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="6" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>49</v>
       </c>
@@ -8274,8 +8496,11 @@
       <c r="F28" s="3" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="6" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>50</v>
       </c>
@@ -8294,8 +8519,11 @@
       <c r="F29" s="3" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>51</v>
       </c>
@@ -8314,8 +8542,11 @@
       <c r="F30" s="3" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>53</v>
       </c>
@@ -8334,8 +8565,11 @@
       <c r="F31" s="3" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>54</v>
       </c>
@@ -8354,8 +8588,11 @@
       <c r="F32" s="3" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>55</v>
       </c>
@@ -8374,8 +8611,11 @@
       <c r="F33" s="3" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="6" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>56</v>
       </c>
@@ -8394,8 +8634,11 @@
       <c r="F34" s="3" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="6" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>57</v>
       </c>
@@ -8414,8 +8657,11 @@
       <c r="F35" s="3" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>58</v>
       </c>
@@ -8434,8 +8680,11 @@
       <c r="F36" s="3" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="6" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>59</v>
       </c>
@@ -8454,8 +8703,11 @@
       <c r="F37" s="3" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>60</v>
       </c>
@@ -8474,8 +8726,11 @@
       <c r="F38" s="3" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>61</v>
       </c>
@@ -8494,8 +8749,11 @@
       <c r="F39" s="3" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>62</v>
       </c>
@@ -8514,8 +8772,11 @@
       <c r="F40" s="3" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="6" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>63</v>
       </c>
@@ -8534,8 +8795,11 @@
       <c r="F41" s="3" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>64</v>
       </c>
@@ -8554,8 +8818,11 @@
       <c r="F42" s="3" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>65</v>
       </c>
@@ -8574,8 +8841,11 @@
       <c r="F43" s="3" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="6" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>66</v>
       </c>
@@ -8594,8 +8864,11 @@
       <c r="F44" s="3" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>68</v>
       </c>
@@ -8614,8 +8887,11 @@
       <c r="F45" s="3" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>69</v>
       </c>
@@ -8634,8 +8910,11 @@
       <c r="F46" s="3" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="6" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>70</v>
       </c>
@@ -8654,8 +8933,11 @@
       <c r="F47" s="3" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>71</v>
       </c>
@@ -8674,8 +8956,11 @@
       <c r="F48" s="3" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>72</v>
       </c>
@@ -8694,8 +8979,11 @@
       <c r="F49" s="3" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>73</v>
       </c>
@@ -8714,8 +9002,11 @@
       <c r="F50" s="3" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="6" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>74</v>
       </c>
@@ -8734,8 +9025,11 @@
       <c r="F51" s="3" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>75</v>
       </c>
@@ -8754,8 +9048,11 @@
       <c r="F52" s="3" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>76</v>
       </c>
@@ -8774,8 +9071,11 @@
       <c r="F53" s="3" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>77</v>
       </c>
@@ -8794,8 +9094,11 @@
       <c r="F54" s="3" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>78</v>
       </c>
@@ -8814,8 +9117,11 @@
       <c r="F55" s="3" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>79</v>
       </c>
@@ -8834,8 +9140,11 @@
       <c r="F56" s="3" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>80</v>
       </c>
@@ -8854,8 +9163,11 @@
       <c r="F57" s="3" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>81</v>
       </c>
@@ -8874,8 +9186,11 @@
       <c r="F58" s="3" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="6" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>82</v>
       </c>
@@ -8894,8 +9209,11 @@
       <c r="F59" s="3" t="s">
         <v>1390</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="6" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>83</v>
       </c>
@@ -8914,8 +9232,11 @@
       <c r="F60" s="3" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="6" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>84</v>
       </c>
@@ -8934,8 +9255,11 @@
       <c r="F61" s="3" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>85</v>
       </c>
@@ -8954,8 +9278,11 @@
       <c r="F62" s="3" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>86</v>
       </c>
@@ -8974,8 +9301,11 @@
       <c r="F63" s="3" t="s">
         <v>1393</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="6" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>87</v>
       </c>
@@ -8994,8 +9324,11 @@
       <c r="F64" s="3" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>88</v>
       </c>
@@ -9014,8 +9347,11 @@
       <c r="F65" s="3" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="6" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>89</v>
       </c>
@@ -9034,8 +9370,11 @@
       <c r="F66" s="3" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>90</v>
       </c>
@@ -9054,8 +9393,11 @@
       <c r="F67" s="3" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="6" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>91</v>
       </c>
@@ -9074,8 +9416,11 @@
       <c r="F68" s="3" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="6" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>92</v>
       </c>
@@ -9094,8 +9439,11 @@
       <c r="F69" s="3" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>93</v>
       </c>
@@ -9114,8 +9462,11 @@
       <c r="F70" s="3" t="s">
         <v>1397</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="6" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>94</v>
       </c>
@@ -9134,8 +9485,11 @@
       <c r="F71" s="3" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="6" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>95</v>
       </c>
@@ -9154,8 +9508,11 @@
       <c r="F72" s="3" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="6" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>97</v>
       </c>
@@ -9174,8 +9531,11 @@
       <c r="F73" s="3" t="s">
         <v>1398</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="6" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>98</v>
       </c>
@@ -9194,8 +9554,11 @@
       <c r="F74" s="3" t="s">
         <v>1399</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>99</v>
       </c>
@@ -9214,8 +9577,11 @@
       <c r="F75" s="3" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>100</v>
       </c>
@@ -9234,8 +9600,11 @@
       <c r="F76" s="3" t="s">
         <v>1401</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="6" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>101</v>
       </c>
@@ -9254,8 +9623,11 @@
       <c r="F77" s="3" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="6" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>103</v>
       </c>
@@ -9274,8 +9646,11 @@
       <c r="F78" s="3" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>104</v>
       </c>
@@ -9294,8 +9669,11 @@
       <c r="F79" s="3" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>105</v>
       </c>
@@ -9314,8 +9692,11 @@
       <c r="F80" s="3" t="s">
         <v>1404</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>106</v>
       </c>
@@ -9334,8 +9715,11 @@
       <c r="F81" s="3" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>107</v>
       </c>
@@ -9354,8 +9738,11 @@
       <c r="F82" s="3" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="6" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>109</v>
       </c>
@@ -9374,8 +9761,11 @@
       <c r="F83" s="3" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>110</v>
       </c>
@@ -9394,8 +9784,11 @@
       <c r="F84" s="3" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>111</v>
       </c>
@@ -9414,8 +9807,11 @@
       <c r="F85" s="3" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>112</v>
       </c>
@@ -9434,8 +9830,11 @@
       <c r="F86" s="3" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>113</v>
       </c>
@@ -9454,8 +9853,11 @@
       <c r="F87" s="3" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>114</v>
       </c>
@@ -9474,8 +9876,11 @@
       <c r="F88" s="3" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="6" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>115</v>
       </c>
@@ -9494,8 +9899,11 @@
       <c r="F89" s="3" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="6" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>116</v>
       </c>
@@ -9514,8 +9922,11 @@
       <c r="F90" s="3" t="s">
         <v>1412</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="6" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>117</v>
       </c>
@@ -9534,8 +9945,11 @@
       <c r="F91" s="3" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>118</v>
       </c>
@@ -9554,8 +9968,11 @@
       <c r="F92" s="3" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>119</v>
       </c>
@@ -9574,8 +9991,11 @@
       <c r="F93" s="3" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>120</v>
       </c>
@@ -9594,8 +10014,11 @@
       <c r="F94" s="3" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" s="6" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>121</v>
       </c>
@@ -9614,8 +10037,11 @@
       <c r="F95" s="3" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>122</v>
       </c>
@@ -9634,8 +10060,11 @@
       <c r="F96" s="3" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>123</v>
       </c>
@@ -9654,8 +10083,11 @@
       <c r="F97" s="3" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" s="6" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>124</v>
       </c>
@@ -9674,8 +10106,11 @@
       <c r="F98" s="3" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>125</v>
       </c>
@@ -9694,8 +10129,11 @@
       <c r="F99" s="3" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>126</v>
       </c>
@@ -9714,8 +10152,11 @@
       <c r="F100" s="3" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" s="6" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>127</v>
       </c>
@@ -9734,8 +10175,11 @@
       <c r="F101" s="3" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101" s="6" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>128</v>
       </c>
@@ -9754,8 +10198,11 @@
       <c r="F102" s="3" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>129</v>
       </c>
@@ -9774,8 +10221,11 @@
       <c r="F103" s="3" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103" s="6" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>130</v>
       </c>
@@ -9794,8 +10244,11 @@
       <c r="F104" s="3" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>131</v>
       </c>
@@ -9814,8 +10267,11 @@
       <c r="F105" s="3" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>132</v>
       </c>
@@ -9834,8 +10290,11 @@
       <c r="F106" s="3" t="s">
         <v>1404</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106" s="6" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>134</v>
       </c>
@@ -9854,8 +10313,11 @@
       <c r="F107" s="3" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>135</v>
       </c>
@@ -9874,8 +10336,11 @@
       <c r="F108" s="3" t="s">
         <v>1420</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>136</v>
       </c>
@@ -9894,8 +10359,11 @@
       <c r="F109" s="3" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>137</v>
       </c>
@@ -9914,8 +10382,11 @@
       <c r="F110" s="3" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>138</v>
       </c>
@@ -9934,8 +10405,11 @@
       <c r="F111" s="3" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111" s="6" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>139</v>
       </c>
@@ -9954,8 +10428,11 @@
       <c r="F112" s="3" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>140</v>
       </c>
@@ -9974,8 +10451,11 @@
       <c r="F113" s="3" t="s">
         <v>1424</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>141</v>
       </c>
@@ -9994,8 +10474,11 @@
       <c r="F114" s="3" t="s">
         <v>1399</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114" s="6" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>142</v>
       </c>
@@ -10014,8 +10497,11 @@
       <c r="F115" s="3" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115" s="6" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>143</v>
       </c>
@@ -10034,8 +10520,11 @@
       <c r="F116" s="3" t="s">
         <v>1426</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116" s="6" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>144</v>
       </c>
@@ -10054,8 +10543,11 @@
       <c r="F117" s="3" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>145</v>
       </c>
@@ -10074,8 +10566,11 @@
       <c r="F118" s="3" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>146</v>
       </c>
@@ -10094,8 +10589,11 @@
       <c r="F119" s="3" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>147</v>
       </c>
@@ -10114,8 +10612,11 @@
       <c r="F120" s="3" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>148</v>
       </c>
@@ -10134,8 +10635,11 @@
       <c r="F121" s="3" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121" s="6" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>149</v>
       </c>
@@ -10154,8 +10658,11 @@
       <c r="F122" s="3" t="s">
         <v>1429</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122" s="6" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>150</v>
       </c>
@@ -10174,8 +10681,11 @@
       <c r="F123" s="3" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>151</v>
       </c>
@@ -10194,8 +10704,11 @@
       <c r="F124" s="3" t="s">
         <v>1430</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124" s="6" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>152</v>
       </c>
@@ -10214,8 +10727,11 @@
       <c r="F125" s="3" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>153</v>
       </c>
@@ -10234,8 +10750,11 @@
       <c r="F126" s="3" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G126" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>154</v>
       </c>
@@ -10254,8 +10773,11 @@
       <c r="F127" s="3" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127" s="6" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>155</v>
       </c>
@@ -10274,8 +10796,11 @@
       <c r="F128" s="3" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128" s="6" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>156</v>
       </c>
@@ -10294,8 +10819,11 @@
       <c r="F129" s="3" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>157</v>
       </c>
@@ -10314,8 +10842,11 @@
       <c r="F130" s="3" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>158</v>
       </c>
@@ -10334,8 +10865,11 @@
       <c r="F131" s="3" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>159</v>
       </c>
@@ -10354,8 +10888,11 @@
       <c r="F132" s="3" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132" s="6" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>160</v>
       </c>
@@ -10374,8 +10911,11 @@
       <c r="F133" s="3" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133" s="6" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>161</v>
       </c>
@@ -10394,8 +10934,11 @@
       <c r="F134" s="3" t="s">
         <v>1437</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>162</v>
       </c>
@@ -10414,8 +10957,11 @@
       <c r="F135" s="3" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>163</v>
       </c>
@@ -10434,8 +10980,11 @@
       <c r="F136" s="3" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136" s="6" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>164</v>
       </c>
@@ -10454,8 +11003,11 @@
       <c r="F137" s="3" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>165</v>
       </c>
@@ -10474,8 +11026,11 @@
       <c r="F138" s="3" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138" s="6" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>166</v>
       </c>
@@ -10494,8 +11049,11 @@
       <c r="F139" s="3" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139" s="6" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>442</v>
       </c>
@@ -10514,8 +11072,11 @@
       <c r="F140" s="3" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>443</v>
       </c>
@@ -10534,8 +11095,11 @@
       <c r="F141" s="3" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>444</v>
       </c>
@@ -10554,8 +11118,11 @@
       <c r="F142" s="3" t="s">
         <v>1441</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142" s="6" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>445</v>
       </c>
@@ -10574,8 +11141,11 @@
       <c r="F143" s="3" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>446</v>
       </c>
@@ -10594,8 +11164,11 @@
       <c r="F144" s="3" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>447</v>
       </c>
@@ -10614,8 +11187,11 @@
       <c r="F145" s="3" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G145" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>448</v>
       </c>
@@ -10634,8 +11210,11 @@
       <c r="F146" s="3" t="s">
         <v>1443</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G146" s="6" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>449</v>
       </c>
@@ -10654,8 +11233,11 @@
       <c r="F147" s="3" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G147" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>450</v>
       </c>
@@ -10674,8 +11256,11 @@
       <c r="F148" s="3" t="s">
         <v>1445</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G148" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>451</v>
       </c>
@@ -10694,8 +11279,11 @@
       <c r="F149" s="3" t="s">
         <v>1446</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G149" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>452</v>
       </c>
@@ -10714,8 +11302,11 @@
       <c r="F150" s="3" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>453</v>
       </c>
@@ -10734,8 +11325,11 @@
       <c r="F151" s="3" t="s">
         <v>1447</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G151" s="6" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>454</v>
       </c>
@@ -10754,8 +11348,11 @@
       <c r="F152" s="3" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152" s="6" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>455</v>
       </c>
@@ -10774,8 +11371,11 @@
       <c r="F153" s="3" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G153" s="6" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>456</v>
       </c>
@@ -10794,8 +11394,11 @@
       <c r="F154" s="3" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G154" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>457</v>
       </c>
@@ -10814,8 +11417,11 @@
       <c r="F155" s="3" t="s">
         <v>1449</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G155" s="6" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>458</v>
       </c>
@@ -10834,8 +11440,11 @@
       <c r="F156" s="3" t="s">
         <v>1450</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G156" s="6" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>459</v>
       </c>
@@ -10854,8 +11463,11 @@
       <c r="F157" s="3" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G157" s="6" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>460</v>
       </c>
@@ -10874,8 +11486,11 @@
       <c r="F158" s="3" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G158" s="6" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>461</v>
       </c>
@@ -10894,8 +11509,11 @@
       <c r="F159" s="3" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G159" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>462</v>
       </c>
@@ -10914,8 +11532,11 @@
       <c r="F160" s="3" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G160" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>463</v>
       </c>
@@ -10934,8 +11555,11 @@
       <c r="F161" s="3" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>464</v>
       </c>
@@ -10954,8 +11578,11 @@
       <c r="F162" s="3" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G162" s="6" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>465</v>
       </c>
@@ -10974,8 +11601,11 @@
       <c r="F163" s="3" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G163" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>466</v>
       </c>
@@ -10994,8 +11624,11 @@
       <c r="F164" s="3" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G164" s="6" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>467</v>
       </c>
@@ -11014,8 +11647,11 @@
       <c r="F165" s="3" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G165" s="6" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>468</v>
       </c>
@@ -11034,8 +11670,11 @@
       <c r="F166" s="3" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G166" s="6" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>469</v>
       </c>
@@ -11054,8 +11693,11 @@
       <c r="F167" s="3" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G167" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>470</v>
       </c>
@@ -11074,8 +11716,11 @@
       <c r="F168" s="3" t="s">
         <v>1455</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G168" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>471</v>
       </c>
@@ -11094,8 +11739,11 @@
       <c r="F169" s="3" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G169" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>472</v>
       </c>
@@ -11114,8 +11762,11 @@
       <c r="F170" s="3" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G170" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>473</v>
       </c>
@@ -11134,8 +11785,11 @@
       <c r="F171" s="3" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G171" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>474</v>
       </c>
@@ -11154,8 +11808,11 @@
       <c r="F172" s="3" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G172" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>475</v>
       </c>
@@ -11174,8 +11831,11 @@
       <c r="F173" s="3" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G173" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>476</v>
       </c>
@@ -11194,8 +11854,11 @@
       <c r="F174" s="3" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G174" s="6" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>477</v>
       </c>
@@ -11214,8 +11877,11 @@
       <c r="F175" s="3" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G175" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>478</v>
       </c>
@@ -11234,8 +11900,11 @@
       <c r="F176" s="3" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G176" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>479</v>
       </c>
@@ -11254,8 +11923,11 @@
       <c r="F177" s="3" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G177" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>480</v>
       </c>
@@ -11274,8 +11946,11 @@
       <c r="F178" s="3" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G178" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>481</v>
       </c>
@@ -11294,8 +11969,11 @@
       <c r="F179" s="3" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G179" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>482</v>
       </c>
@@ -11314,8 +11992,11 @@
       <c r="F180" s="3" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G180" s="6" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>483</v>
       </c>
@@ -11334,8 +12015,11 @@
       <c r="F181" s="3" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G181" s="6" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>484</v>
       </c>
@@ -11354,8 +12038,11 @@
       <c r="F182" s="3" t="s">
         <v>1464</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G182" s="6" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>485</v>
       </c>
@@ -11374,8 +12061,11 @@
       <c r="F183" s="3" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G183" s="6" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>486</v>
       </c>
@@ -11394,8 +12084,11 @@
       <c r="F184" s="3" t="s">
         <v>1447</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G184" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>487</v>
       </c>
@@ -11414,8 +12107,11 @@
       <c r="F185" s="3" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G185" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>488</v>
       </c>
@@ -11434,8 +12130,11 @@
       <c r="F186" s="3" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G186" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>489</v>
       </c>
@@ -11454,8 +12153,11 @@
       <c r="F187" s="3" t="s">
         <v>1467</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G187" s="6" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>490</v>
       </c>
@@ -11474,8 +12176,11 @@
       <c r="F188" s="3" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G188" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>491</v>
       </c>
@@ -11494,8 +12199,11 @@
       <c r="F189" s="3" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G189" s="6" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>492</v>
       </c>
@@ -11514,8 +12222,11 @@
       <c r="F190" s="3" t="s">
         <v>1468</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G190" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>493</v>
       </c>
@@ -11534,8 +12245,11 @@
       <c r="F191" s="3" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G191" s="6" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>494</v>
       </c>
@@ -11554,8 +12268,11 @@
       <c r="F192" s="3" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G192" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>495</v>
       </c>
@@ -11574,8 +12291,11 @@
       <c r="F193" s="3" t="s">
         <v>1443</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G193" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>496</v>
       </c>
@@ -11594,8 +12314,11 @@
       <c r="F194" s="3" t="s">
         <v>1467</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G194" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>497</v>
       </c>
@@ -11614,8 +12337,11 @@
       <c r="F195" s="3" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G195" s="6" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>498</v>
       </c>
@@ -11634,8 +12360,11 @@
       <c r="F196" s="3" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G196" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>499</v>
       </c>
@@ -11654,8 +12383,11 @@
       <c r="F197" s="3" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G197" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>500</v>
       </c>
@@ -11674,8 +12406,11 @@
       <c r="F198" s="3" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G198" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>501</v>
       </c>
@@ -11694,8 +12429,11 @@
       <c r="F199" s="3" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G199" s="6" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>502</v>
       </c>
@@ -11714,8 +12452,11 @@
       <c r="F200" s="3" t="s">
         <v>1473</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G200" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>503</v>
       </c>
@@ -11734,8 +12475,11 @@
       <c r="F201" s="3" t="s">
         <v>1467</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G201" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>504</v>
       </c>
@@ -11754,8 +12498,11 @@
       <c r="F202" s="3" t="s">
         <v>1467</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G202" s="6" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>505</v>
       </c>
@@ -11774,8 +12521,11 @@
       <c r="F203" s="3" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G203" s="6" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>506</v>
       </c>
@@ -11794,8 +12544,11 @@
       <c r="F204" s="3" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G204" s="6" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>507</v>
       </c>
@@ -11814,8 +12567,11 @@
       <c r="F205" s="3" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G205" s="6" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>508</v>
       </c>
@@ -11834,8 +12590,11 @@
       <c r="F206" s="3" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G206" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>509</v>
       </c>
@@ -11854,8 +12613,11 @@
       <c r="F207" s="3" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G207" s="6" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>510</v>
       </c>
@@ -11874,8 +12636,11 @@
       <c r="F208" s="3" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G208" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>511</v>
       </c>
@@ -11894,8 +12659,11 @@
       <c r="F209" s="3" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G209" s="6" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>512</v>
       </c>
@@ -11914,8 +12682,11 @@
       <c r="F210" s="3" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G210" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>513</v>
       </c>
@@ -11934,8 +12705,11 @@
       <c r="F211" s="3" t="s">
         <v>1478</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G211" s="6" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>514</v>
       </c>
@@ -11954,8 +12728,11 @@
       <c r="F212" s="3" t="s">
         <v>1479</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G212" s="6" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>515</v>
       </c>
@@ -11974,8 +12751,11 @@
       <c r="F213" s="3" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G213" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>516</v>
       </c>
@@ -11994,8 +12774,11 @@
       <c r="F214" s="3" t="s">
         <v>1480</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G214" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>517</v>
       </c>
@@ -12014,8 +12797,11 @@
       <c r="F215" s="3" t="s">
         <v>1468</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G215" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>518</v>
       </c>
@@ -12034,8 +12820,11 @@
       <c r="F216" s="3" t="s">
         <v>1467</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G216" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>519</v>
       </c>
@@ -12054,8 +12843,11 @@
       <c r="F217" s="3" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G217" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>520</v>
       </c>
@@ -12074,8 +12866,11 @@
       <c r="F218" s="3" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G218" s="6" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>521</v>
       </c>
@@ -12094,8 +12889,11 @@
       <c r="F219" s="3" t="s">
         <v>1481</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G219" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>522</v>
       </c>
@@ -12114,8 +12912,11 @@
       <c r="F220" s="3" t="s">
         <v>1482</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G220" s="6" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>523</v>
       </c>
@@ -12134,8 +12935,11 @@
       <c r="F221" s="3" t="s">
         <v>1483</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G221" s="6" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>524</v>
       </c>
@@ -12154,8 +12958,11 @@
       <c r="F222" s="3" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G222" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>525</v>
       </c>
@@ -12174,8 +12981,11 @@
       <c r="F223" s="3" t="s">
         <v>1484</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G223" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>526</v>
       </c>
@@ -12194,8 +13004,11 @@
       <c r="F224" s="3" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G224" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>527</v>
       </c>
@@ -12214,8 +13027,11 @@
       <c r="F225" s="3" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G225" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>528</v>
       </c>
@@ -12234,8 +13050,11 @@
       <c r="F226" s="3" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G226" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>529</v>
       </c>
@@ -12254,8 +13073,11 @@
       <c r="F227" s="3" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G227" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>530</v>
       </c>
@@ -12274,8 +13096,11 @@
       <c r="F228" s="3" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G228" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>531</v>
       </c>
@@ -12294,8 +13119,11 @@
       <c r="F229" s="3" t="s">
         <v>1486</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G229" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>532</v>
       </c>
@@ -12314,8 +13142,11 @@
       <c r="F230" s="3" t="s">
         <v>1401</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G230" s="6" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>533</v>
       </c>
@@ -12334,8 +13165,11 @@
       <c r="F231" s="3" t="s">
         <v>1487</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G231" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>534</v>
       </c>
@@ -12354,8 +13188,11 @@
       <c r="F232" s="3" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G232" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>535</v>
       </c>
@@ -12374,8 +13211,11 @@
       <c r="F233" s="3" t="s">
         <v>1488</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G233" s="6" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>536</v>
       </c>
@@ -12394,8 +13234,11 @@
       <c r="F234" s="3" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G234" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>537</v>
       </c>
@@ -12414,8 +13257,11 @@
       <c r="F235" s="3" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G235" s="6" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>538</v>
       </c>
@@ -12434,8 +13280,11 @@
       <c r="F236" s="3" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G236" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>539</v>
       </c>
@@ -12454,8 +13303,11 @@
       <c r="F237" s="3" t="s">
         <v>1430</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G237" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>540</v>
       </c>
@@ -12474,8 +13326,11 @@
       <c r="F238" s="3" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G238" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>541</v>
       </c>
@@ -12494,8 +13349,11 @@
       <c r="F239" s="3" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G239" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>542</v>
       </c>
@@ -12514,8 +13372,11 @@
       <c r="F240" s="3" t="s">
         <v>1487</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G240" s="6" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>543</v>
       </c>
@@ -12534,8 +13395,11 @@
       <c r="F241" s="3" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G241" s="6" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>544</v>
       </c>
@@ -12554,8 +13418,11 @@
       <c r="F242" s="3" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G242" s="6" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>545</v>
       </c>
@@ -12574,8 +13441,11 @@
       <c r="F243" s="3" t="s">
         <v>1492</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G243" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>546</v>
       </c>
@@ -12594,8 +13464,11 @@
       <c r="F244" s="3" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G244" s="6" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>547</v>
       </c>
@@ -12614,8 +13487,11 @@
       <c r="F245" s="3" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G245" s="6" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>548</v>
       </c>
@@ -12634,8 +13510,11 @@
       <c r="F246" s="3" t="s">
         <v>1494</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G246" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>549</v>
       </c>
@@ -12654,8 +13533,11 @@
       <c r="F247" s="3" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G247" s="6" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>550</v>
       </c>
@@ -12674,8 +13556,11 @@
       <c r="F248" s="3" t="s">
         <v>1495</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G248" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>551</v>
       </c>
@@ -12694,8 +13579,11 @@
       <c r="F249" s="3" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G249" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>552</v>
       </c>
@@ -12714,8 +13602,11 @@
       <c r="F250" s="3" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G250" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>553</v>
       </c>
@@ -12734,8 +13625,11 @@
       <c r="F251" s="3" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G251" s="6" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>554</v>
       </c>
@@ -12754,8 +13648,11 @@
       <c r="F252" s="3" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G252" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>555</v>
       </c>
@@ -12774,8 +13671,11 @@
       <c r="F253" s="3" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G253" s="6" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>556</v>
       </c>
@@ -12794,8 +13694,11 @@
       <c r="F254" s="3" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G254" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>557</v>
       </c>
@@ -12814,8 +13717,11 @@
       <c r="F255" s="3" t="s">
         <v>1497</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G255" s="6" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>558</v>
       </c>
@@ -12834,8 +13740,11 @@
       <c r="F256" s="3" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G256" s="6" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>559</v>
       </c>
@@ -12854,8 +13763,11 @@
       <c r="F257" s="3" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G257" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>560</v>
       </c>
@@ -12874,8 +13786,11 @@
       <c r="F258" s="3" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G258" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>561</v>
       </c>
@@ -12894,8 +13809,11 @@
       <c r="F259" s="3" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G259" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>562</v>
       </c>
@@ -12914,8 +13832,11 @@
       <c r="F260" s="3" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G260" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>563</v>
       </c>
@@ -12934,8 +13855,11 @@
       <c r="F261" s="3" t="s">
         <v>1499</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G261" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>564</v>
       </c>
@@ -12954,8 +13878,11 @@
       <c r="F262" s="3" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G262" s="6" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>565</v>
       </c>
@@ -12974,8 +13901,11 @@
       <c r="F263" s="3" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G263" s="6" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>566</v>
       </c>
@@ -12994,8 +13924,11 @@
       <c r="F264" s="3" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G264" s="6" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>567</v>
       </c>
@@ -13014,8 +13947,11 @@
       <c r="F265" s="3" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G265" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>568</v>
       </c>
@@ -13034,8 +13970,11 @@
       <c r="F266" s="3" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G266" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>569</v>
       </c>
@@ -13054,8 +13993,11 @@
       <c r="F267" s="3" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G267" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>570</v>
       </c>
@@ -13074,8 +14016,11 @@
       <c r="F268" s="3" t="s">
         <v>1502</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G268" s="6" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>571</v>
       </c>
@@ -13094,8 +14039,11 @@
       <c r="F269" s="3" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G269" s="6" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>572</v>
       </c>
@@ -13114,8 +14062,11 @@
       <c r="F270" s="3" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G270" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>573</v>
       </c>
@@ -13134,8 +14085,11 @@
       <c r="F271" s="3" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G271" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>167</v>
       </c>
@@ -13154,8 +14108,11 @@
       <c r="F272" s="3" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G272" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>168</v>
       </c>
@@ -13174,8 +14131,11 @@
       <c r="F273" s="3" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G273" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>169</v>
       </c>
@@ -13194,8 +14154,11 @@
       <c r="F274" s="3" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G274" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>170</v>
       </c>
@@ -13214,8 +14177,11 @@
       <c r="F275" s="3" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G275" s="6" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>171</v>
       </c>
@@ -13234,8 +14200,11 @@
       <c r="F276" s="3" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G276" s="6" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>172</v>
       </c>
@@ -13254,8 +14223,11 @@
       <c r="F277" s="3" t="s">
         <v>1484</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G277" s="6" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>173</v>
       </c>
@@ -13274,8 +14246,11 @@
       <c r="F278" s="3" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G278" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>174</v>
       </c>
@@ -13294,8 +14269,11 @@
       <c r="F279" s="3" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G279" s="6" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>175</v>
       </c>
@@ -13314,8 +14292,11 @@
       <c r="F280" s="3" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G280" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>176</v>
       </c>
@@ -13334,8 +14315,11 @@
       <c r="F281" s="3" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G281" s="6" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>177</v>
       </c>
@@ -13354,8 +14338,11 @@
       <c r="F282" s="3" t="s">
         <v>1504</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G282" s="6" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>179</v>
       </c>
@@ -13374,8 +14361,11 @@
       <c r="F283" s="3" t="s">
         <v>1505</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G283" s="6" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>180</v>
       </c>
@@ -13394,8 +14384,11 @@
       <c r="F284" s="3" t="s">
         <v>1506</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G284" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>181</v>
       </c>
@@ -13414,8 +14407,11 @@
       <c r="F285" s="3" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G285" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>183</v>
       </c>
@@ -13434,8 +14430,11 @@
       <c r="F286" s="3" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G286" s="6" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>184</v>
       </c>
@@ -13454,8 +14453,11 @@
       <c r="F287" s="3" t="s">
         <v>1487</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G287" s="6" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>185</v>
       </c>
@@ -13474,8 +14476,11 @@
       <c r="F288" s="3" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G288" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>187</v>
       </c>
@@ -13494,8 +14499,11 @@
       <c r="F289" s="3" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G289" s="6" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>188</v>
       </c>
@@ -13514,8 +14522,11 @@
       <c r="F290" s="3" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G290" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>189</v>
       </c>
@@ -13534,8 +14545,11 @@
       <c r="F291" s="3" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G291" s="6" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>190</v>
       </c>
@@ -13554,8 +14568,11 @@
       <c r="F292" s="3" t="s">
         <v>1508</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G292" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>191</v>
       </c>
@@ -13574,8 +14591,11 @@
       <c r="F293" s="3" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G293" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>192</v>
       </c>
@@ -13594,8 +14614,11 @@
       <c r="F294" s="3" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G294" s="6" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>193</v>
       </c>
@@ -13614,8 +14637,11 @@
       <c r="F295" s="3" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G295" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>194</v>
       </c>
@@ -13634,8 +14660,11 @@
       <c r="F296" s="3" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G296" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>195</v>
       </c>
@@ -13654,8 +14683,11 @@
       <c r="F297" s="3" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G297" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>196</v>
       </c>
@@ -13674,8 +14706,11 @@
       <c r="F298" s="3" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G298" s="6" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>197</v>
       </c>
@@ -13694,8 +14729,11 @@
       <c r="F299" s="3" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G299" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>198</v>
       </c>
@@ -13714,8 +14752,11 @@
       <c r="F300" s="3" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G300" s="6" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>199</v>
       </c>
@@ -13734,8 +14775,11 @@
       <c r="F301" s="3" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G301" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>200</v>
       </c>
@@ -13754,8 +14798,11 @@
       <c r="F302" s="3" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G302" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>201</v>
       </c>
@@ -13774,8 +14821,11 @@
       <c r="F303" s="3" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G303" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>202</v>
       </c>
@@ -13794,8 +14844,11 @@
       <c r="F304" s="3" t="s">
         <v>1468</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G304" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>203</v>
       </c>
@@ -13814,8 +14867,11 @@
       <c r="F305" s="3" t="s">
         <v>1514</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G305" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>204</v>
       </c>
@@ -13834,8 +14890,11 @@
       <c r="F306" s="3" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G306" s="6" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>205</v>
       </c>
@@ -13854,8 +14913,11 @@
       <c r="F307" s="3" t="s">
         <v>1515</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G307" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>206</v>
       </c>
@@ -13874,8 +14936,11 @@
       <c r="F308" s="3" t="s">
         <v>1516</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G308" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>207</v>
       </c>
@@ -13894,8 +14959,11 @@
       <c r="F309" s="3" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G309" s="6" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>208</v>
       </c>
@@ -13914,8 +14982,11 @@
       <c r="F310" s="3" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G310" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>209</v>
       </c>
@@ -13934,8 +15005,11 @@
       <c r="F311" s="3" t="s">
         <v>1517</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G311" s="6" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>210</v>
       </c>
@@ -13954,8 +15028,11 @@
       <c r="F312" s="3" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G312" s="6" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>211</v>
       </c>
@@ -13974,8 +15051,11 @@
       <c r="F313" s="3" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G313" s="6" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>212</v>
       </c>
@@ -13994,8 +15074,11 @@
       <c r="F314" s="3" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G314" s="6" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>213</v>
       </c>
@@ -14014,8 +15097,11 @@
       <c r="F315" s="3" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G315" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>214</v>
       </c>
@@ -14034,8 +15120,11 @@
       <c r="F316" s="3" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G316" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>215</v>
       </c>
@@ -14054,8 +15143,11 @@
       <c r="F317" s="3" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G317" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>216</v>
       </c>
@@ -14074,8 +15166,11 @@
       <c r="F318" s="3" t="s">
         <v>1519</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G318" s="6" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>217</v>
       </c>
@@ -14094,8 +15189,11 @@
       <c r="F319" s="3" t="s">
         <v>1390</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G319" s="6" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>218</v>
       </c>
@@ -14114,8 +15212,11 @@
       <c r="F320" s="3" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G320" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>219</v>
       </c>
@@ -14134,8 +15235,11 @@
       <c r="F321" s="3" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G321" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>220</v>
       </c>
@@ -14154,8 +15258,11 @@
       <c r="F322" s="3" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G322" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>221</v>
       </c>
@@ -14174,8 +15281,11 @@
       <c r="F323" s="3" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G323" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>222</v>
       </c>
@@ -14194,8 +15304,11 @@
       <c r="F324" s="3" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G324" s="6" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>223</v>
       </c>
@@ -14214,8 +15327,11 @@
       <c r="F325" s="3" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G325" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>224</v>
       </c>
@@ -14234,8 +15350,11 @@
       <c r="F326" s="3" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G326" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>225</v>
       </c>
@@ -14254,8 +15373,11 @@
       <c r="F327" s="3" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G327" s="6" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>226</v>
       </c>
@@ -14274,8 +15396,11 @@
       <c r="F328" s="3" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G328" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>227</v>
       </c>
@@ -14294,8 +15419,11 @@
       <c r="F329" s="3" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G329" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>228</v>
       </c>
@@ -14314,8 +15442,11 @@
       <c r="F330" s="3" t="s">
         <v>1523</v>
       </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G330" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>229</v>
       </c>
@@ -14334,8 +15465,11 @@
       <c r="F331" s="3" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G331" s="6" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>230</v>
       </c>
@@ -14354,8 +15488,11 @@
       <c r="F332" s="3" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G332" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>231</v>
       </c>
@@ -14374,8 +15511,11 @@
       <c r="F333" s="3" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G333" s="6" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>232</v>
       </c>
@@ -14394,8 +15534,11 @@
       <c r="F334" s="3" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G334" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>233</v>
       </c>
@@ -14414,8 +15557,11 @@
       <c r="F335" s="3" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G335" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>234</v>
       </c>
@@ -14434,8 +15580,11 @@
       <c r="F336" s="3" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G336" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>235</v>
       </c>
@@ -14454,8 +15603,11 @@
       <c r="F337" s="3" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G337" s="6" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>236</v>
       </c>
@@ -14474,8 +15626,11 @@
       <c r="F338" s="3" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G338" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>237</v>
       </c>
@@ -14494,8 +15649,11 @@
       <c r="F339" s="3" t="s">
         <v>1528</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G339" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>238</v>
       </c>
@@ -14514,8 +15672,11 @@
       <c r="F340" s="3" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G340" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>239</v>
       </c>
@@ -14534,8 +15695,11 @@
       <c r="F341" s="3" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G341" s="6" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>240</v>
       </c>
@@ -14554,8 +15718,11 @@
       <c r="F342" s="3" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G342" s="6" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>241</v>
       </c>
@@ -14574,8 +15741,11 @@
       <c r="F343" s="3" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G343" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>242</v>
       </c>
@@ -14594,8 +15764,11 @@
       <c r="F344" s="3" t="s">
         <v>1529</v>
       </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G344" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>243</v>
       </c>
@@ -14614,8 +15787,11 @@
       <c r="F345" s="3" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G345" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>244</v>
       </c>
@@ -14634,8 +15810,11 @@
       <c r="F346" s="3" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G346" s="6" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>245</v>
       </c>
@@ -14654,8 +15833,11 @@
       <c r="F347" s="3" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G347" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>246</v>
       </c>
@@ -14674,8 +15856,11 @@
       <c r="F348" s="3" t="s">
         <v>1399</v>
       </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G348" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>247</v>
       </c>
@@ -14694,8 +15879,11 @@
       <c r="F349" s="3" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G349" s="6" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>248</v>
       </c>
@@ -14714,8 +15902,11 @@
       <c r="F350" s="3" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G350" s="6" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>249</v>
       </c>
@@ -14734,8 +15925,11 @@
       <c r="F351" s="3" t="s">
         <v>1486</v>
       </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G351" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>250</v>
       </c>
@@ -14754,8 +15948,11 @@
       <c r="F352" s="3" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G352" s="6" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>251</v>
       </c>
@@ -14774,8 +15971,11 @@
       <c r="F353" s="3" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G353" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>252</v>
       </c>
@@ -14794,8 +15994,11 @@
       <c r="F354" s="3" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G354" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>253</v>
       </c>
@@ -14814,8 +16017,11 @@
       <c r="F355" s="3" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G355" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>254</v>
       </c>
@@ -14834,8 +16040,11 @@
       <c r="F356" s="3" t="s">
         <v>1478</v>
       </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G356" s="6" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>255</v>
       </c>
@@ -14854,8 +16063,11 @@
       <c r="F357" s="3" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G357" s="6" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>256</v>
       </c>
@@ -14874,8 +16086,11 @@
       <c r="F358" s="3" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G358" s="6" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>257</v>
       </c>
@@ -14894,8 +16109,11 @@
       <c r="F359" s="3" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G359" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>258</v>
       </c>
@@ -14914,8 +16132,11 @@
       <c r="F360" s="3" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G360" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>259</v>
       </c>
@@ -14934,8 +16155,11 @@
       <c r="F361" s="3" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G361" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>260</v>
       </c>
@@ -14954,8 +16178,11 @@
       <c r="F362" s="3" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G362" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>261</v>
       </c>
@@ -14974,8 +16201,11 @@
       <c r="F363" s="3" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G363" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>262</v>
       </c>
@@ -14994,8 +16224,11 @@
       <c r="F364" s="3" t="s">
         <v>1532</v>
       </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G364" s="6" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>263</v>
       </c>
@@ -15014,8 +16247,11 @@
       <c r="F365" s="3" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G365" s="6" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>264</v>
       </c>
@@ -15034,8 +16270,11 @@
       <c r="F366" s="3" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G366" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>265</v>
       </c>
@@ -15054,8 +16293,11 @@
       <c r="F367" s="3" t="s">
         <v>1446</v>
       </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G367" s="6" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>266</v>
       </c>
@@ -15074,8 +16316,11 @@
       <c r="F368" s="3" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G368" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
         <v>267</v>
       </c>
@@ -15094,8 +16339,11 @@
       <c r="F369" s="3" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G369" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
         <v>268</v>
       </c>
@@ -15114,8 +16362,11 @@
       <c r="F370" s="3" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G370" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
         <v>269</v>
       </c>
@@ -15134,8 +16385,11 @@
       <c r="F371" s="3" t="s">
         <v>1449</v>
       </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G371" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
         <v>270</v>
       </c>
@@ -15154,8 +16408,11 @@
       <c r="F372" s="3" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G372" s="6" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
         <v>271</v>
       </c>
@@ -15174,8 +16431,11 @@
       <c r="F373" s="3" t="s">
         <v>1533</v>
       </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G373" s="6" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
         <v>272</v>
       </c>
@@ -15194,8 +16454,11 @@
       <c r="F374" s="3" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G374" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
         <v>273</v>
       </c>
@@ -15214,8 +16477,11 @@
       <c r="F375" s="3" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G375" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
         <v>274</v>
       </c>
@@ -15234,8 +16500,11 @@
       <c r="F376" s="3" t="s">
         <v>1447</v>
       </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G376" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
         <v>275</v>
       </c>
@@ -15254,8 +16523,11 @@
       <c r="F377" s="3" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G377" s="6" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
         <v>276</v>
       </c>
@@ -15274,8 +16546,11 @@
       <c r="F378" s="3" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G378" s="6" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>277</v>
       </c>
@@ -15294,8 +16569,11 @@
       <c r="F379" s="3" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G379" s="6" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
         <v>278</v>
       </c>
@@ -15314,8 +16592,11 @@
       <c r="F380" s="3" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G380" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
         <v>279</v>
       </c>
@@ -15334,8 +16615,11 @@
       <c r="F381" s="3" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G381" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
         <v>280</v>
       </c>
@@ -15354,8 +16638,11 @@
       <c r="F382" s="3" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G382" s="6" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
         <v>281</v>
       </c>
@@ -15374,8 +16661,11 @@
       <c r="F383" s="3" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G383" s="6" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
         <v>282</v>
       </c>
@@ -15394,8 +16684,11 @@
       <c r="F384" s="3" t="s">
         <v>1538</v>
       </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G384" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
         <v>283</v>
       </c>
@@ -15414,8 +16707,11 @@
       <c r="F385" s="3" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G385" s="6" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
         <v>284</v>
       </c>
@@ -15434,8 +16730,11 @@
       <c r="F386" s="3" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G386" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
         <v>286</v>
       </c>
@@ -15454,8 +16753,11 @@
       <c r="F387" s="3" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G387" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
         <v>287</v>
       </c>
@@ -15474,8 +16776,11 @@
       <c r="F388" s="3" t="s">
         <v>1481</v>
       </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G388" s="6" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
         <v>288</v>
       </c>
@@ -15494,8 +16799,11 @@
       <c r="F389" s="3" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G389" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
         <v>289</v>
       </c>
@@ -15514,8 +16822,11 @@
       <c r="F390" s="3" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G390" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
         <v>290</v>
       </c>
@@ -15534,8 +16845,11 @@
       <c r="F391" s="3" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G391" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
         <v>291</v>
       </c>
@@ -15554,8 +16868,11 @@
       <c r="F392" s="3" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G392" s="6" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
         <v>292</v>
       </c>
@@ -15574,8 +16891,11 @@
       <c r="F393" s="3" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G393" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>293</v>
       </c>
@@ -15594,8 +16914,11 @@
       <c r="F394" s="3" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G394" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
         <v>294</v>
       </c>
@@ -15614,8 +16937,11 @@
       <c r="F395" s="3" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G395" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
         <v>295</v>
       </c>
@@ -15634,8 +16960,11 @@
       <c r="F396" s="3" t="s">
         <v>1540</v>
       </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G396" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
         <v>296</v>
       </c>
@@ -15654,8 +16983,11 @@
       <c r="F397" s="3" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G397" s="6" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
         <v>297</v>
       </c>
@@ -15674,8 +17006,11 @@
       <c r="F398" s="3" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G398" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
         <v>298</v>
       </c>
@@ -15694,8 +17029,11 @@
       <c r="F399" s="3" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G399" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
         <v>299</v>
       </c>
@@ -15714,8 +17052,11 @@
       <c r="F400" s="3" t="s">
         <v>1504</v>
       </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G400" s="6" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
         <v>300</v>
       </c>
@@ -15734,8 +17075,11 @@
       <c r="F401" s="3" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G401" s="6" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
         <v>301</v>
       </c>
@@ -15754,8 +17098,11 @@
       <c r="F402" s="3" t="s">
         <v>1542</v>
       </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G402" s="6" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
         <v>302</v>
       </c>
@@ -15774,8 +17121,11 @@
       <c r="F403" s="3" t="s">
         <v>1543</v>
       </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G403" s="6" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
         <v>303</v>
       </c>
@@ -15794,8 +17144,11 @@
       <c r="F404" s="3" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G404" s="6" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
         <v>304</v>
       </c>
@@ -15814,8 +17167,11 @@
       <c r="F405" s="3" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G405" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
         <v>305</v>
       </c>
@@ -15834,8 +17190,11 @@
       <c r="F406" s="3" t="s">
         <v>1544</v>
       </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G406" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
         <v>306</v>
       </c>
@@ -15854,8 +17213,11 @@
       <c r="F407" s="3" t="s">
         <v>1545</v>
       </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G407" s="6" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
         <v>307</v>
       </c>
@@ -15874,8 +17236,11 @@
       <c r="F408" s="3" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G408" s="6" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
         <v>308</v>
       </c>
@@ -15894,8 +17259,11 @@
       <c r="F409" s="3" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G409" s="6" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
         <v>309</v>
       </c>
@@ -15914,8 +17282,11 @@
       <c r="F410" s="3" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G410" s="6" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
         <v>310</v>
       </c>
@@ -15934,8 +17305,11 @@
       <c r="F411" s="3" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G411" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
         <v>311</v>
       </c>
@@ -15954,8 +17328,11 @@
       <c r="F412" s="3" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G412" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
         <v>312</v>
       </c>
@@ -15974,8 +17351,11 @@
       <c r="F413" s="3" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G413" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
         <v>313</v>
       </c>
@@ -15994,8 +17374,11 @@
       <c r="F414" s="3" t="s">
         <v>1546</v>
       </c>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G414" s="6" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
         <v>314</v>
       </c>
@@ -16014,8 +17397,11 @@
       <c r="F415" s="3" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G415" s="6" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
         <v>315</v>
       </c>
@@ -16034,8 +17420,11 @@
       <c r="F416" s="3" t="s">
         <v>1467</v>
       </c>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G416" s="6" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
         <v>316</v>
       </c>
@@ -16054,8 +17443,11 @@
       <c r="F417" s="3" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G417" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
         <v>317</v>
       </c>
@@ -16074,8 +17466,11 @@
       <c r="F418" s="3" t="s">
         <v>1446</v>
       </c>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G418" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
         <v>318</v>
       </c>
@@ -16094,8 +17489,11 @@
       <c r="F419" s="3" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G419" s="6" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>319</v>
       </c>
@@ -16114,8 +17512,11 @@
       <c r="F420" s="3" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G420" s="6" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
         <v>320</v>
       </c>
@@ -16134,8 +17535,11 @@
       <c r="F421" s="3" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G421" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
         <v>321</v>
       </c>
@@ -16154,8 +17558,11 @@
       <c r="F422" s="3" t="s">
         <v>1486</v>
       </c>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G422" s="6" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
         <v>322</v>
       </c>
@@ -16174,8 +17581,11 @@
       <c r="F423" s="3" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G423" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
         <v>323</v>
       </c>
@@ -16194,8 +17604,11 @@
       <c r="F424" s="3" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G424" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
         <v>324</v>
       </c>
@@ -16214,8 +17627,11 @@
       <c r="F425" s="3" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G425" s="6" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
         <v>325</v>
       </c>
@@ -16234,8 +17650,11 @@
       <c r="F426" s="3" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G426" s="6" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
         <v>326</v>
       </c>
@@ -16254,8 +17673,11 @@
       <c r="F427" s="3" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G427" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
         <v>327</v>
       </c>
@@ -16274,8 +17696,11 @@
       <c r="F428" s="3" t="s">
         <v>1549</v>
       </c>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G428" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
         <v>328</v>
       </c>
@@ -16294,8 +17719,11 @@
       <c r="F429" s="3" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G429" s="6" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
         <v>329</v>
       </c>
@@ -16314,8 +17742,11 @@
       <c r="F430" s="3" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G430" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
         <v>330</v>
       </c>
@@ -16334,8 +17765,11 @@
       <c r="F431" s="3" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G431" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
         <v>331</v>
       </c>
@@ -16354,8 +17788,11 @@
       <c r="F432" s="3" t="s">
         <v>1550</v>
       </c>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G432" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
         <v>332</v>
       </c>
@@ -16374,8 +17811,11 @@
       <c r="F433" s="3" t="s">
         <v>1551</v>
       </c>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G433" s="6" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
         <v>333</v>
       </c>
@@ -16394,8 +17834,11 @@
       <c r="F434" s="3" t="s">
         <v>1552</v>
       </c>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G434" s="6" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
         <v>334</v>
       </c>
@@ -16414,8 +17857,11 @@
       <c r="F435" s="3" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G435" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
         <v>335</v>
       </c>
@@ -16434,8 +17880,11 @@
       <c r="F436" s="3" t="s">
         <v>1553</v>
       </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G436" s="6" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
         <v>336</v>
       </c>
@@ -16454,8 +17903,11 @@
       <c r="F437" s="3" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G437" s="6" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
         <v>337</v>
       </c>
@@ -16474,8 +17926,11 @@
       <c r="F438" s="3" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G438" s="6" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
         <v>338</v>
       </c>
@@ -16494,8 +17949,11 @@
       <c r="F439" s="3" t="s">
         <v>1554</v>
       </c>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G439" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
         <v>339</v>
       </c>
@@ -16514,8 +17972,11 @@
       <c r="F440" s="3" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G440" s="6" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
         <v>340</v>
       </c>
@@ -16534,8 +17995,11 @@
       <c r="F441" s="3" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G441" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
         <v>341</v>
       </c>
@@ -16554,8 +18018,11 @@
       <c r="F442" s="3" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G442" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
         <v>342</v>
       </c>
@@ -16574,8 +18041,11 @@
       <c r="F443" s="3" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G443" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
         <v>343</v>
       </c>
@@ -16594,8 +18064,11 @@
       <c r="F444" s="3" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G444" s="6" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
         <v>344</v>
       </c>
@@ -16614,8 +18087,11 @@
       <c r="F445" s="3" t="s">
         <v>1555</v>
       </c>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G445" s="6" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
         <v>345</v>
       </c>
@@ -16634,8 +18110,11 @@
       <c r="F446" s="3" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G446" s="6" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
         <v>346</v>
       </c>
@@ -16654,8 +18133,11 @@
       <c r="F447" s="3" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G447" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
         <v>347</v>
       </c>
@@ -16674,8 +18156,11 @@
       <c r="F448" s="3" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G448" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
         <v>348</v>
       </c>
@@ -16694,8 +18179,11 @@
       <c r="F449" s="3" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G449" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
         <v>349</v>
       </c>
@@ -16714,8 +18202,11 @@
       <c r="F450" s="3" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G450" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
         <v>350</v>
       </c>
@@ -16734,8 +18225,11 @@
       <c r="F451" s="3" t="s">
         <v>1556</v>
       </c>
-    </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G451" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
         <v>351</v>
       </c>
@@ -16754,8 +18248,11 @@
       <c r="F452" s="3" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G452" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
         <v>352</v>
       </c>
@@ -16774,8 +18271,11 @@
       <c r="F453" s="3" t="s">
         <v>1516</v>
       </c>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G453" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
         <v>353</v>
       </c>
@@ -16794,8 +18294,11 @@
       <c r="F454" s="3" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G454" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
         <v>354</v>
       </c>
@@ -16814,8 +18317,11 @@
       <c r="F455" s="3" t="s">
         <v>1468</v>
       </c>
-    </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G455" s="6" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
         <v>355</v>
       </c>
@@ -16834,8 +18340,11 @@
       <c r="F456" s="3" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G456" s="6" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
         <v>356</v>
       </c>
@@ -16854,8 +18363,11 @@
       <c r="F457" s="3" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G457" s="6" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
         <v>357</v>
       </c>
@@ -16874,8 +18386,11 @@
       <c r="F458" s="3" t="s">
         <v>1487</v>
       </c>
-    </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G458" s="6" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
         <v>358</v>
       </c>
@@ -16894,8 +18409,11 @@
       <c r="F459" s="3" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G459" s="6" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
         <v>359</v>
       </c>
@@ -16914,8 +18432,11 @@
       <c r="F460" s="3" t="s">
         <v>1494</v>
       </c>
-    </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G460" s="6" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
         <v>360</v>
       </c>
@@ -16934,8 +18455,11 @@
       <c r="F461" s="3" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G461" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
         <v>361</v>
       </c>
@@ -16954,8 +18478,11 @@
       <c r="F462" s="3" t="s">
         <v>1558</v>
       </c>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G462" s="6" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
         <v>362</v>
       </c>
@@ -16974,8 +18501,11 @@
       <c r="F463" s="3" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G463" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
         <v>363</v>
       </c>
@@ -16994,8 +18524,11 @@
       <c r="F464" s="3" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G464" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
         <v>364</v>
       </c>
@@ -17014,8 +18547,11 @@
       <c r="F465" s="3" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G465" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
         <v>365</v>
       </c>
@@ -17034,8 +18570,11 @@
       <c r="F466" s="3" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G466" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
         <v>366</v>
       </c>
@@ -17054,8 +18593,11 @@
       <c r="F467" s="3" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G467" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
         <v>367</v>
       </c>
@@ -17074,8 +18616,11 @@
       <c r="F468" s="3" t="s">
         <v>1560</v>
       </c>
-    </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G468" s="6" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
         <v>368</v>
       </c>
@@ -17094,8 +18639,11 @@
       <c r="F469" s="3" t="s">
         <v>1561</v>
       </c>
-    </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G469" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
         <v>369</v>
       </c>
@@ -17114,8 +18662,11 @@
       <c r="F470" s="3" t="s">
         <v>1562</v>
       </c>
-    </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G470" s="6" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
         <v>370</v>
       </c>
@@ -17134,8 +18685,11 @@
       <c r="F471" s="3" t="s">
         <v>1563</v>
       </c>
-    </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G471" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
         <v>371</v>
       </c>
@@ -17154,8 +18708,11 @@
       <c r="F472" s="3" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G472" s="6" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
         <v>372</v>
       </c>
@@ -17174,8 +18731,11 @@
       <c r="F473" s="3" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G473" s="6" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
         <v>373</v>
       </c>
@@ -17194,8 +18754,11 @@
       <c r="F474" s="3" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G474" s="6" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
         <v>374</v>
       </c>
@@ -17214,8 +18777,11 @@
       <c r="F475" s="3" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G475" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
         <v>375</v>
       </c>
@@ -17234,8 +18800,11 @@
       <c r="F476" s="3" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G476" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
         <v>376</v>
       </c>
@@ -17254,8 +18823,11 @@
       <c r="F477" s="3" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G477" s="6" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
         <v>377</v>
       </c>
@@ -17274,8 +18846,11 @@
       <c r="F478" s="3" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G478" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
         <v>378</v>
       </c>
@@ -17294,8 +18869,11 @@
       <c r="F479" s="3" t="s">
         <v>1504</v>
       </c>
-    </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G479" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
         <v>379</v>
       </c>
@@ -17314,8 +18892,11 @@
       <c r="F480" s="3" t="s">
         <v>1467</v>
       </c>
-    </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G480" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
         <v>380</v>
       </c>
@@ -17334,8 +18915,11 @@
       <c r="F481" s="3" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G481" s="6" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
         <v>381</v>
       </c>
@@ -17354,8 +18938,11 @@
       <c r="F482" s="3" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G482" s="6" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
         <v>382</v>
       </c>
@@ -17374,8 +18961,11 @@
       <c r="F483" s="3" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G483" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
         <v>383</v>
       </c>
@@ -17394,8 +18984,11 @@
       <c r="F484" s="3" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G484" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
         <v>384</v>
       </c>
@@ -17414,8 +19007,11 @@
       <c r="F485" s="3" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G485" s="6" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
         <v>385</v>
       </c>
@@ -17434,8 +19030,11 @@
       <c r="F486" s="3" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G486" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
         <v>386</v>
       </c>
@@ -17454,8 +19053,11 @@
       <c r="F487" s="3" t="s">
         <v>1533</v>
       </c>
-    </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G487" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
         <v>387</v>
       </c>
@@ -17474,8 +19076,11 @@
       <c r="F488" s="3" t="s">
         <v>1567</v>
       </c>
-    </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G488" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
         <v>388</v>
       </c>
@@ -17494,8 +19099,11 @@
       <c r="F489" s="3" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G489" s="6" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
         <v>389</v>
       </c>
@@ -17514,8 +19122,11 @@
       <c r="F490" s="3" t="s">
         <v>1504</v>
       </c>
-    </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G490" s="6" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
         <v>390</v>
       </c>
@@ -17534,8 +19145,11 @@
       <c r="F491" s="3" t="s">
         <v>1568</v>
       </c>
-    </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G491" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
         <v>391</v>
       </c>
@@ -17554,8 +19168,11 @@
       <c r="F492" s="3" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G492" s="6" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
         <v>392</v>
       </c>
@@ -17574,8 +19191,11 @@
       <c r="F493" s="3" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G493" s="6" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
         <v>393</v>
       </c>
@@ -17594,8 +19214,11 @@
       <c r="F494" s="3" t="s">
         <v>1569</v>
       </c>
-    </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G494" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
         <v>394</v>
       </c>
@@ -17614,8 +19237,11 @@
       <c r="F495" s="3" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G495" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
         <v>395</v>
       </c>
@@ -17634,8 +19260,11 @@
       <c r="F496" s="3" t="s">
         <v>1542</v>
       </c>
-    </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G496" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
         <v>396</v>
       </c>
@@ -17654,8 +19283,11 @@
       <c r="F497" s="3" t="s">
         <v>1549</v>
       </c>
-    </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G497" s="6" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
         <v>397</v>
       </c>
@@ -17674,8 +19306,11 @@
       <c r="F498" s="3" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G498" s="6" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
         <v>398</v>
       </c>
@@ -17694,8 +19329,11 @@
       <c r="F499" s="3" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G499" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
         <v>399</v>
       </c>
@@ -17714,8 +19352,11 @@
       <c r="F500" s="3" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G500" s="6" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
         <v>400</v>
       </c>
@@ -17734,8 +19375,11 @@
       <c r="F501" s="3" t="s">
         <v>1412</v>
       </c>
-    </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G501" s="6" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
         <v>401</v>
       </c>
@@ -17754,8 +19398,11 @@
       <c r="F502" s="3" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G502" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
         <v>402</v>
       </c>
@@ -17774,8 +19421,11 @@
       <c r="F503" s="3" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G503" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
         <v>403</v>
       </c>
@@ -17794,8 +19444,11 @@
       <c r="F504" s="3" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G504" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
         <v>404</v>
       </c>
@@ -17814,8 +19467,11 @@
       <c r="F505" s="3" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G505" s="6" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
         <v>405</v>
       </c>
@@ -17834,8 +19490,11 @@
       <c r="F506" s="3" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G506" s="6" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
         <v>406</v>
       </c>
@@ -17854,8 +19513,11 @@
       <c r="F507" s="3" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G507" s="6" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
         <v>407</v>
       </c>
@@ -17874,8 +19536,11 @@
       <c r="F508" s="3" t="s">
         <v>1573</v>
       </c>
-    </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G508" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
         <v>408</v>
       </c>
@@ -17894,8 +19559,11 @@
       <c r="F509" s="3" t="s">
         <v>1574</v>
       </c>
-    </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G509" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
         <v>409</v>
       </c>
@@ -17914,8 +19582,11 @@
       <c r="F510" s="3" t="s">
         <v>1494</v>
       </c>
-    </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G510" s="6" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
         <v>410</v>
       </c>
@@ -17934,8 +19605,11 @@
       <c r="F511" s="3" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G511" s="6" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
         <v>411</v>
       </c>
@@ -17954,8 +19628,11 @@
       <c r="F512" s="3" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G512" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
         <v>412</v>
       </c>
@@ -17974,8 +19651,11 @@
       <c r="F513" s="3" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G513" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
         <v>413</v>
       </c>
@@ -17994,8 +19674,11 @@
       <c r="F514" s="3" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G514" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
         <v>414</v>
       </c>
@@ -18014,8 +19697,11 @@
       <c r="F515" s="3" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G515" s="6" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
         <v>415</v>
       </c>
@@ -18034,8 +19720,11 @@
       <c r="F516" s="3" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G516" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
         <v>416</v>
       </c>
@@ -18054,8 +19743,11 @@
       <c r="F517" s="3" t="s">
         <v>1567</v>
       </c>
-    </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G517" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
         <v>417</v>
       </c>
@@ -18074,8 +19766,11 @@
       <c r="F518" s="3" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G518" s="6" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="3" t="s">
         <v>418</v>
       </c>
@@ -18094,8 +19789,11 @@
       <c r="F519" s="3" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G519" s="6" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="3" t="s">
         <v>419</v>
       </c>
@@ -18114,8 +19812,11 @@
       <c r="F520" s="3" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G520" s="6" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
         <v>420</v>
       </c>
@@ -18134,8 +19835,11 @@
       <c r="F521" s="3" t="s">
         <v>1579</v>
       </c>
-    </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G521" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
         <v>421</v>
       </c>
@@ -18154,8 +19858,11 @@
       <c r="F522" s="3" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G522" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
         <v>422</v>
       </c>
@@ -18174,8 +19881,11 @@
       <c r="F523" s="3" t="s">
         <v>1567</v>
       </c>
-    </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G523" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
         <v>423</v>
       </c>
@@ -18194,8 +19904,11 @@
       <c r="F524" s="3" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G524" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="3" t="s">
         <v>424</v>
       </c>
@@ -18214,8 +19927,11 @@
       <c r="F525" s="3" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G525" s="6" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
         <v>425</v>
       </c>
@@ -18234,8 +19950,11 @@
       <c r="F526" s="3" t="s">
         <v>1581</v>
       </c>
-    </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G526" s="6" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="3" t="s">
         <v>426</v>
       </c>
@@ -18254,8 +19973,11 @@
       <c r="F527" s="3" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G527" s="6" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="3" t="s">
         <v>427</v>
       </c>
@@ -18274,8 +19996,11 @@
       <c r="F528" s="3" t="s">
         <v>1582</v>
       </c>
-    </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G528" s="6" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="3" t="s">
         <v>428</v>
       </c>
@@ -18294,8 +20019,11 @@
       <c r="F529" s="3" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G529" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="3" t="s">
         <v>429</v>
       </c>
@@ -18314,8 +20042,11 @@
       <c r="F530" s="3" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G530" s="6" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="3" t="s">
         <v>430</v>
       </c>
@@ -18334,8 +20065,11 @@
       <c r="F531" s="3" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G531" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="3" t="s">
         <v>431</v>
       </c>
@@ -18354,8 +20088,11 @@
       <c r="F532" s="3" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G532" s="6" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="3" t="s">
         <v>432</v>
       </c>
@@ -18374,8 +20111,11 @@
       <c r="F533" s="3" t="s">
         <v>1542</v>
       </c>
-    </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G533" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="3" t="s">
         <v>433</v>
       </c>
@@ -18394,8 +20134,11 @@
       <c r="F534" s="3" t="s">
         <v>1583</v>
       </c>
-    </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G534" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="3" t="s">
         <v>434</v>
       </c>
@@ -18414,8 +20157,11 @@
       <c r="F535" s="3" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G535" s="6" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="3" t="s">
         <v>435</v>
       </c>
@@ -18434,8 +20180,11 @@
       <c r="F536" s="3" t="s">
         <v>1584</v>
       </c>
-    </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G536" s="6" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="3" t="s">
         <v>436</v>
       </c>
@@ -18454,8 +20203,11 @@
       <c r="F537" s="3" t="s">
         <v>1481</v>
       </c>
-    </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G537" s="6" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="3" t="s">
         <v>437</v>
       </c>
@@ -18474,8 +20226,11 @@
       <c r="F538" s="3" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G538" s="6" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" s="3" t="s">
         <v>438</v>
       </c>
@@ -18494,8 +20249,11 @@
       <c r="F539" s="3" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G539" s="6" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="3" t="s">
         <v>439</v>
       </c>
@@ -18514,8 +20272,11 @@
       <c r="F540" s="3" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G540" s="6" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="3" t="s">
         <v>440</v>
       </c>
@@ -18534,8 +20295,11 @@
       <c r="F541" s="3" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G541" s="6" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="3" t="s">
         <v>441</v>
       </c>
@@ -18553,6 +20317,9 @@
       </c>
       <c r="F542" s="3" t="s">
         <v>1346</v>
+      </c>
+      <c r="G542" s="6" t="s">
+        <v>2439</v>
       </c>
     </row>
   </sheetData>
@@ -18560,7 +20327,7 @@
     <sortCondition ref="A3:A542"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
